--- a/TP 4/ejercicio6.xlsx
+++ b/TP 4/ejercicio6.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72D6E17-75FF-4826-9F37-2032CA7B4D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -82,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,8 +113,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -132,9 +136,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -172,9 +176,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,7 +213,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -244,7 +248,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -417,250 +421,510 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>12</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <f>(C2+4*D2+E2)/6</f>
         <v>9.6666666666666661</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="G2" s="1">
+        <f>((E2-C2)/6)^2</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>3</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>10</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <f t="shared" ref="F3:F11" si="0">(C3+4*D3+E3)/6</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G11" si="1">((E3-C3)/6)^2</f>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>5</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>7</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>14</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>16</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <f t="shared" si="0"/>
         <v>13.666666666666666</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>10</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>12</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <f t="shared" si="0"/>
         <v>9.6666666666666661</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>8</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>12</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>20</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
         <v>12.666666666666666</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>3</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>7</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>14</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>20</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>26</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>8</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>12</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>20</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <f t="shared" si="0"/>
         <v>12.666666666666666</v>
       </c>
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TP 4/ejercicio6.xlsx
+++ b/TP 4/ejercicio6.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72D6E17-75FF-4826-9F37-2032CA7B4D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07583001-AE3D-41DA-BE66-726AF1424254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Tarea</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                         </t>
+  </si>
+  <si>
+    <t>Varianza total =</t>
   </si>
 </sst>
 </file>
@@ -113,8 +116,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -425,7 +431,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,9 +787,14 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="E12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="1">
+        <f>G10+G11+G9+G8</f>
+        <v>9</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -927,6 +938,9 @@
       <c r="M21" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E12:F12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
